--- a/page/页面数据.xlsx
+++ b/page/页面数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="93">
   <si>
     <t>page</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -203,13 +203,7 @@
     <t>获取当前用户可访问的菜单项</t>
   </si>
   <si>
-    <t>/users/me/pages</t>
-  </si>
-  <si>
     <t>获取指定页当前用户的权限</t>
-  </si>
-  <si>
-    <t>/users/me/pages/{id}</t>
   </si>
   <si>
     <t>operation</t>
@@ -352,6 +346,71 @@
 editable 编辑
 disable 冻结
 enable 解冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/roles</t>
+  </si>
+  <si>
+    <t>/api/v1/roles/{id}</t>
+  </si>
+  <si>
+    <t>/api/v1/roles/{id}/info</t>
+  </si>
+  <si>
+    <t>/api/v1/roles/{id}/abandon</t>
+  </si>
+  <si>
+    <t>/api/v1/pages</t>
+  </si>
+  <si>
+    <t>/api/v1/pages/{id}</t>
+  </si>
+  <si>
+    <t>/api/v1/users</t>
+  </si>
+  <si>
+    <t>/api/v1/users/{id}</t>
+  </si>
+  <si>
+    <t>/api/v1/users/{id}/disable</t>
+  </si>
+  <si>
+    <t>/api/v1/users/{id}/enable</t>
+  </si>
+  <si>
+    <t>/api/v1/users/me/pages</t>
+  </si>
+  <si>
+    <t>获取当前用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/users/me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/users/me/pages/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/logout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +817,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="63">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -767,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.25">
@@ -779,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -893,10 +952,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
@@ -904,6 +963,7 @@
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
     <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -925,7 +985,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -936,7 +996,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -947,7 +1007,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -958,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -969,7 +1029,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -980,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -991,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1002,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1013,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1024,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1035,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1046,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1057,7 +1117,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1068,34 +1128,68 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1104,8 +1198,8 @@
   <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
@@ -1121,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1139,13 +1233,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -1161,7 +1255,7 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -1179,7 +1273,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -1195,7 +1289,7 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -1211,7 +1305,7 @@
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -1229,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -1245,7 +1339,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -1261,7 +1355,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1277,7 +1371,7 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
@@ -1292,10 +1386,10 @@
     <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>27</v>
@@ -1309,10 +1403,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1330,10 +1424,10 @@
     <row r="13" spans="1:9">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
@@ -1348,10 +1442,10 @@
     <row r="14" spans="1:9">
       <c r="A14" s="7"/>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>27</v>
@@ -1366,7 +1460,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
@@ -1381,10 +1475,10 @@
     <row r="16" spans="1:9">
       <c r="A16" s="7"/>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
